--- a/Project Files/Forms System Final/exports/jh_sf7.xlsx
+++ b/Project Files/Forms System Final/exports/jh_sf7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CBNHS System\Project Files\Forms System Final\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406AA306-EA1F-4AB9-84CA-892D0FB148EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30217D7F-9E49-4E00-A9FB-1B70ABF3EA5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15120" xr2:uid="{15A2B497-9A68-4155-853A-A4753820F316}" activeTab="0"/>
   </bookViews>
@@ -986,7 +986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1079,11 +1079,156 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1094,185 +1239,86 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1285,12 +1331,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1298,32 +1338,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1339,45 +1364,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1474,13 +1460,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>481693</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>54029</xdr:rowOff>
+      <xdr:rowOff>9205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>394606</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1510,7 +1496,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11116075" y="54029"/>
+          <a:off x="11116075" y="9205"/>
           <a:ext cx="1840325" cy="831236"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1846,10 +1832,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17:R176"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,95 +1853,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
       <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="55" t="s">
+      <c r="J4" s="52"/>
+      <c r="K4" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="57"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="90"/>
       <c r="O4" s="18"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="3"/>
@@ -1988,32 +1974,32 @@
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="49" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55" t="s">
+      <c r="J6" s="56"/>
+      <c r="K6" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
       <c r="O6" s="18"/>
       <c r="P6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="51" t="s">
+      <c r="Q6" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="53"/>
+      <c r="R6" s="55"/>
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2036,19 +2022,19 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="107" t="s">
+      <c r="F8" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="73"/>
       <c r="K8" s="112" t="s">
         <v>11</v>
       </c>
@@ -2061,56 +2047,56 @@
       <c r="R8" s="114"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="81" t="s">
+      <c r="B9" s="67"/>
+      <c r="C9" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="81"/>
+      <c r="D9" s="69"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="83" t="s">
+      <c r="F9" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="81" t="s">
+      <c r="G9" s="99"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="89" t="s">
+      <c r="K9" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="90"/>
-      <c r="M9" s="89" t="s">
+      <c r="L9" s="105"/>
+      <c r="M9" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="90"/>
-      <c r="O9" s="105" t="s">
+      <c r="N9" s="105"/>
+      <c r="O9" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="106" t="s">
+      <c r="P9" s="105"/>
+      <c r="Q9" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="106"/>
+      <c r="R9" s="120"/>
     </row>
     <row r="10" spans="1:19" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="98"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="82"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="92"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="70"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="107"/>
       <c r="Q10" s="10" t="s">
         <v>15</v>
       </c>
@@ -2119,125 +2105,125 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="65"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="59"/>
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
       <c r="I12" s="29"/>
       <c r="J12" s="28"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="68"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="62"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="29"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="71"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="92"/>
       <c r="I13" s="30"/>
       <c r="J13" s="28"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="71"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="92"/>
       <c r="Q13" s="30"/>
       <c r="R13" s="30"/>
     </row>
     <row r="14" spans="1:19" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="42" t="s">
+      <c r="E15" s="82"/>
+      <c r="F15" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="79" t="s">
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="58" t="s">
+      <c r="M15" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="99" t="s">
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="R15" s="100"/>
+      <c r="R15" s="116"/>
     </row>
     <row r="16" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
       <c r="H16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="I16" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="62"/>
+      <c r="J16" s="109"/>
       <c r="K16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="80"/>
+      <c r="L16" s="97"/>
       <c r="M16" s="12" t="s">
         <v>41</v>
       </c>
@@ -2250,8 +2236,8 @@
       <c r="P16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="102"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="118"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
@@ -2260,13 +2246,13 @@
       <c r="B17" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="122" t="s">
+      <c r="D17" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="123"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="24" t="s">
         <v>61</v>
       </c>
@@ -2276,10 +2262,10 @@
       <c r="H17" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="122" t="s">
+      <c r="I17" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="123"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="24" t="s">
         <v>61</v>
       </c>
@@ -2290,20 +2276,20 @@
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
       <c r="P17" s="19"/>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="123"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="35"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="125"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="125"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
       <c r="K18" s="22"/>
       <c r="L18" s="31" t="s">
         <v>69</v>
@@ -2312,20 +2298,20 @@
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
       <c r="P18" s="19"/>
-      <c r="Q18" s="124"/>
-      <c r="R18" s="125"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="37"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="125"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="125"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="22"/>
       <c r="L19" s="31" t="s">
         <v>70</v>
@@ -2334,20 +2320,20 @@
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
       <c r="P19" s="19"/>
-      <c r="Q19" s="124"/>
-      <c r="R19" s="125"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="37"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="125"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="125"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="22"/>
       <c r="L20" s="31" t="s">
         <v>71</v>
@@ -2356,20 +2342,20 @@
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
-      <c r="Q20" s="124"/>
-      <c r="R20" s="125"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="37"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
       <c r="K21" s="22"/>
       <c r="L21" s="31" t="s">
         <v>72</v>
@@ -2378,20 +2364,20 @@
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
       <c r="P21" s="19"/>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="125"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="37"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="125"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="125"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
       <c r="K22" s="22"/>
       <c r="L22" s="31" t="s">
         <v>73</v>
@@ -2400,20 +2386,20 @@
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
       <c r="P22" s="19"/>
-      <c r="Q22" s="124"/>
-      <c r="R22" s="125"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="37"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="125"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="125"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
       <c r="K23" s="22"/>
       <c r="L23" s="31" t="s">
         <v>74</v>
@@ -2422,20 +2408,20 @@
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
       <c r="P23" s="19"/>
-      <c r="Q23" s="124"/>
-      <c r="R23" s="125"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="37"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="125"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="125"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
       <c r="K24" s="22"/>
       <c r="L24" s="31" t="s">
         <v>75</v>
@@ -2444,20 +2430,20 @@
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
       <c r="P24" s="19"/>
-      <c r="Q24" s="124"/>
-      <c r="R24" s="125"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="37"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="125"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="125"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
       <c r="K25" s="22"/>
       <c r="L25" s="31" t="s">
         <v>76</v>
@@ -2466,20 +2452,20 @@
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
       <c r="P25" s="19"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="125"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="125"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="125"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
       <c r="K26" s="22"/>
       <c r="L26" s="31" t="s">
         <v>77</v>
@@ -2488,20 +2474,20 @@
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
-      <c r="Q26" s="124"/>
-      <c r="R26" s="125"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="37"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="127"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="127"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="39"/>
       <c r="K27" s="23"/>
       <c r="L27" s="111" t="s">
         <v>30</v>
@@ -2510,8 +2496,8 @@
       <c r="N27" s="111"/>
       <c r="O27" s="111"/>
       <c r="P27" s="20"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="127"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="39"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
@@ -2520,13 +2506,13 @@
       <c r="B28" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="122" t="s">
+      <c r="D28" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="123"/>
+      <c r="E28" s="35"/>
       <c r="F28" s="24" t="s">
         <v>61</v>
       </c>
@@ -2536,10 +2522,10 @@
       <c r="H28" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I28" s="122" t="s">
+      <c r="I28" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="123"/>
+      <c r="J28" s="35"/>
       <c r="K28" s="24" t="s">
         <v>61</v>
       </c>
@@ -2550,20 +2536,20 @@
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="123"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="125"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="37"/>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="125"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
       <c r="K29" s="22"/>
       <c r="L29" s="31" t="s">
         <v>65</v>
@@ -2572,20 +2558,20 @@
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
-      <c r="Q29" s="124"/>
-      <c r="R29" s="125"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="125"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="125"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
       <c r="K30" s="22"/>
       <c r="L30" s="31" t="s">
         <v>66</v>
@@ -2594,60 +2580,60 @@
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
       <c r="P30" s="19"/>
-      <c r="Q30" s="124"/>
-      <c r="R30" s="125"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="37"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="125"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="125"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="37"/>
       <c r="K31" s="22"/>
       <c r="L31" s="31"/>
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="19"/>
-      <c r="Q31" s="124"/>
-      <c r="R31" s="125"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="37"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="125"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
-      <c r="I32" s="124"/>
-      <c r="J32" s="125"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
       <c r="K32" s="22"/>
       <c r="L32" s="31"/>
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
       <c r="P32" s="19"/>
-      <c r="Q32" s="124"/>
-      <c r="R32" s="125"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="37"/>
     </row>
     <row r="33" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="127"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="127"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="39"/>
       <c r="K33" s="23"/>
       <c r="L33" s="111" t="s">
         <v>30</v>
@@ -2656,8 +2642,8 @@
       <c r="N33" s="111"/>
       <c r="O33" s="111"/>
       <c r="P33" s="20"/>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="127"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="39"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
@@ -2666,13 +2652,13 @@
       <c r="B34" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="122" t="s">
+      <c r="D34" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="123"/>
+      <c r="E34" s="35"/>
       <c r="F34" s="24" t="s">
         <v>55</v>
       </c>
@@ -2682,10 +2668,10 @@
       <c r="H34" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="I34" s="122" t="s">
+      <c r="I34" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="J34" s="123"/>
+      <c r="J34" s="35"/>
       <c r="K34" s="24" t="s">
         <v>59</v>
       </c>
@@ -2696,100 +2682,100 @@
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="19"/>
-      <c r="Q34" s="122"/>
-      <c r="R34" s="123"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="35"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="125"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="37"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="125"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
       <c r="K35" s="22"/>
       <c r="L35" s="31"/>
       <c r="M35" s="19"/>
       <c r="N35" s="19"/>
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
-      <c r="Q35" s="124"/>
-      <c r="R35" s="125"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="37"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="125"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="37"/>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="125"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
       <c r="K36" s="22"/>
       <c r="L36" s="31"/>
       <c r="M36" s="19"/>
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
-      <c r="Q36" s="124"/>
-      <c r="R36" s="125"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="37"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="125"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="37"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
-      <c r="I37" s="124"/>
-      <c r="J37" s="125"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="37"/>
       <c r="K37" s="22"/>
       <c r="L37" s="31"/>
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
       <c r="O37" s="19"/>
       <c r="P37" s="19"/>
-      <c r="Q37" s="124"/>
-      <c r="R37" s="125"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="37"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="124"/>
-      <c r="E38" s="125"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="37"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="125"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
       <c r="K38" s="22"/>
       <c r="L38" s="31"/>
       <c r="M38" s="19"/>
       <c r="N38" s="19"/>
       <c r="O38" s="19"/>
       <c r="P38" s="19"/>
-      <c r="Q38" s="124"/>
-      <c r="R38" s="125"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="37"/>
     </row>
     <row r="39" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="127"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="127"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
       <c r="K39" s="23"/>
       <c r="L39" s="111" t="s">
         <v>30</v>
@@ -2798,196 +2784,218 @@
       <c r="N39" s="111"/>
       <c r="O39" s="111"/>
       <c r="P39" s="20"/>
-      <c r="Q39" s="126"/>
-      <c r="R39" s="127"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="118" t="s">
+      <c r="Q39" s="38"/>
+      <c r="R39" s="39"/>
+    </row>
+    <row r="40" spans="1:18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="118"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="118"/>
-      <c r="K40" s="118"/>
-      <c r="M40" s="115" t="s">
+      <c r="B41" s="127"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="127"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="127"/>
+      <c r="K41" s="127"/>
+      <c r="M41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="N40" s="115"/>
-      <c r="O40" s="115"/>
-      <c r="P40" s="115"/>
-    </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="119" t="s">
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+    </row>
+    <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="119"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="119"/>
-      <c r="G41" s="119"/>
-      <c r="H41" s="119"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="119"/>
-      <c r="M41" s="33"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="119"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="119"/>
-      <c r="G42" s="119"/>
-      <c r="H42" s="119"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="119"/>
-      <c r="K42" s="119"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="128"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
+      <c r="J42" s="128"/>
+      <c r="K42" s="128"/>
       <c r="M42" s="33"/>
     </row>
-    <row r="43" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="120" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="128"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="128"/>
+      <c r="K43" s="128"/>
+      <c r="M43" s="33"/>
+    </row>
+    <row r="44" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="120"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="120"/>
-      <c r="K43" s="120"/>
-      <c r="M43" s="116" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="129"/>
+      <c r="G44" s="129"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="129"/>
+      <c r="K44" s="129"/>
+      <c r="M44" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="N43" s="116"/>
-      <c r="O43" s="116"/>
-      <c r="P43" s="116"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="120"/>
-      <c r="B44" s="120"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="120"/>
-      <c r="K44" s="120"/>
-      <c r="M44" s="117" t="s">
+      <c r="N44" s="125"/>
+      <c r="O44" s="125"/>
+      <c r="P44" s="125"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="129"/>
+      <c r="B45" s="129"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="129"/>
+      <c r="J45" s="129"/>
+      <c r="K45" s="129"/>
+      <c r="M45" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="N44" s="117"/>
-      <c r="O44" s="117"/>
-      <c r="P44" s="117"/>
-    </row>
-    <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="121" t="s">
+      <c r="N45" s="126"/>
+      <c r="O45" s="126"/>
+      <c r="P45" s="126"/>
+    </row>
+    <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="121"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="121"/>
-      <c r="F45" s="121"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="121"/>
-      <c r="I45" s="121"/>
-      <c r="J45" s="121"/>
-      <c r="K45" s="121"/>
-      <c r="M45" s="33"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="121"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="121"/>
-      <c r="F46" s="121"/>
-      <c r="G46" s="121"/>
-      <c r="H46" s="121"/>
-      <c r="I46" s="121"/>
-      <c r="J46" s="121"/>
-      <c r="K46" s="121"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="124"/>
       <c r="M46" s="33"/>
     </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="121" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="124"/>
+      <c r="B47" s="124"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="124"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="124"/>
+      <c r="I47" s="124"/>
+      <c r="J47" s="124"/>
+      <c r="K47" s="124"/>
+      <c r="M47" s="33"/>
+    </row>
+    <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="121"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="121"/>
-      <c r="F47" s="121"/>
-      <c r="G47" s="121"/>
-      <c r="H47" s="121"/>
-      <c r="I47" s="121"/>
-      <c r="J47" s="121"/>
-      <c r="K47" s="121"/>
-      <c r="M47" s="33"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="121"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="121"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="121"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="124"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="124"/>
+      <c r="J48" s="124"/>
+      <c r="K48" s="124"/>
       <c r="M48" s="33"/>
     </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="124"/>
+      <c r="B49" s="124"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="124"/>
+      <c r="M49" s="33"/>
+    </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="92">
     <mergeCell ref="K8:R8"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
-    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="M9:N10"/>
     <mergeCell ref="Q15:R16"/>
     <mergeCell ref="O9:P10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="M13:N13"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="F9:H10"/>
     <mergeCell ref="K9:L10"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="Q6:R6"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:E16"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A12:B12"/>
@@ -2995,15 +3003,13 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="I16:J16"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="F8:I8"/>
     <mergeCell ref="L27:O27"/>
     <mergeCell ref="L33:O33"/>
     <mergeCell ref="L39:O39"/>
@@ -3038,6 +3044,14 @@
     <mergeCell ref="D34:E39"/>
     <mergeCell ref="I34:J39"/>
     <mergeCell ref="Q34:R39"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="A42:K43"/>
+    <mergeCell ref="A44:K45"/>
+    <mergeCell ref="A46:K47"/>
+    <mergeCell ref="A48:K49"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Project Files/Forms System Final/exports/jh_sf7.xlsx
+++ b/Project Files/Forms System Final/exports/jh_sf7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CBNHS System\Project Files\Forms System Final\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30217D7F-9E49-4E00-A9FB-1B70ABF3EA5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9205D0B1-7282-47AB-99F4-DDB8383C80BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15120" xr2:uid="{15A2B497-9A68-4155-853A-A4753820F316}" activeTab="0"/>
   </bookViews>
@@ -423,34 +423,34 @@
     <t xml:space="preserve">Furahashi, Fumino, O. </t>
   </si>
   <si>
+    <t>MUSIC 7 - FIDELITY</t>
+  </si>
+  <si>
+    <t>ARAL PAN 7 - FIDELITY</t>
+  </si>
+  <si>
+    <t>ADVISORY 7 - FIDELITY</t>
+  </si>
+  <si>
+    <t>ARTS 7 - FIDELITY</t>
+  </si>
+  <si>
+    <t>ESP 7 - FIDELITY</t>
+  </si>
+  <si>
+    <t>MAPEH 7 - FIDELITY</t>
+  </si>
+  <si>
+    <t>PE 7 - FIDELITY</t>
+  </si>
+  <si>
+    <t>TLE 7 - FIDELITY</t>
+  </si>
+  <si>
+    <t>SCIENCE 7 - FIDELITY</t>
+  </si>
+  <si>
     <t>HEALTH 7 - FIDELITY</t>
-  </si>
-  <si>
-    <t>MUSIC 7 - FIDELITY</t>
-  </si>
-  <si>
-    <t>ARAL PAN 7 - FIDELITY</t>
-  </si>
-  <si>
-    <t>ADVISORY 7 - FIDELITY</t>
-  </si>
-  <si>
-    <t>ARTS 7 - FIDELITY</t>
-  </si>
-  <si>
-    <t>ESP 7 - FIDELITY</t>
-  </si>
-  <si>
-    <t>MAPEH 7 - FIDELITY</t>
-  </si>
-  <si>
-    <t>PE 7 - FIDELITY</t>
-  </si>
-  <si>
-    <t>TLE 7 - FIDELITY</t>
-  </si>
-  <si>
-    <t>SCIENCE 7 - FIDELITY</t>
   </si>
 </sst>
 </file>
@@ -1030,9 +1030,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1119,6 +1116,198 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1134,34 +1323,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1182,12 +1353,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1197,173 +1362,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1835,7 +1835,7 @@
   <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,96 +1853,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="101"/>
       <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="88" t="s">
+      <c r="J4" s="115"/>
+      <c r="K4" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="18"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="17"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
@@ -1974,32 +1974,32 @@
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="51" t="s">
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="88" t="s">
+      <c r="J6" s="117"/>
+      <c r="K6" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="18"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="17"/>
       <c r="P6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="53" t="s">
+      <c r="Q6" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="55"/>
+      <c r="R6" s="101"/>
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2022,81 +2022,81 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="73"/>
-      <c r="K8" s="112" t="s">
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="128"/>
+      <c r="K8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="114"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="69" t="s">
+      <c r="B9" s="124"/>
+      <c r="C9" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="69"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="99"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="69" t="s">
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="104" t="s">
+      <c r="K9" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="105"/>
-      <c r="M9" s="104" t="s">
+      <c r="L9" s="64"/>
+      <c r="M9" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="105"/>
-      <c r="O9" s="119" t="s">
+      <c r="N9" s="64"/>
+      <c r="O9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="120" t="s">
+      <c r="P9" s="64"/>
+      <c r="Q9" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="120"/>
+      <c r="R9" s="72"/>
     </row>
     <row r="10" spans="1:19" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="70"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="107"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="84"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="66"/>
       <c r="Q10" s="10" t="s">
         <v>15</v>
       </c>
@@ -2105,125 +2105,125 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="25"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
       <c r="K11" s="57"/>
-      <c r="L11" s="59"/>
+      <c r="L11" s="58"/>
       <c r="M11" s="57"/>
-      <c r="N11" s="59"/>
+      <c r="N11" s="58"/>
       <c r="O11" s="57"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
     </row>
     <row r="14" spans="1:19" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="82"/>
-      <c r="F15" s="77" t="s">
+      <c r="E15" s="108"/>
+      <c r="F15" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="77" t="s">
+      <c r="G15" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="93" t="s">
+      <c r="H15" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="96" t="s">
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="121" t="s">
+      <c r="M15" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="122"/>
-      <c r="O15" s="122"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="115" t="s">
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="R15" s="116"/>
+      <c r="R15" s="68"/>
     </row>
     <row r="16" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="76"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
       <c r="H16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="108" t="s">
+      <c r="I16" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="109"/>
+      <c r="J16" s="92"/>
       <c r="K16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="97"/>
+      <c r="L16" s="82"/>
       <c r="M16" s="12" t="s">
         <v>41</v>
       </c>
@@ -2236,730 +2236,766 @@
       <c r="P16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q16" s="117"/>
-      <c r="R16" s="118"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="70"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="24" t="s">
+      <c r="E17" s="34"/>
+      <c r="F17" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="24" t="s">
+      <c r="J17" s="34"/>
+      <c r="K17" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="35"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="34"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="31" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="37"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="31" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="37"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="31" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="37"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="31" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="37"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="31" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="37"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="31" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="37"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="36"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="31" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="37"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="36"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="31" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="36"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="31" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="37"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="36"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="111" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="M27" s="111"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="39"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="38"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="24" t="s">
+      <c r="E28" s="34"/>
+      <c r="F28" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I28" s="34" t="s">
+      <c r="I28" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="35"/>
-      <c r="K28" s="24" t="s">
+      <c r="J28" s="34"/>
+      <c r="K28" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="L28" s="31" t="s">
+      <c r="L28" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="35"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="34"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="31" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="37"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="36"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="31" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="37"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="36"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="37"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="36"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="37"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="36"/>
     </row>
     <row r="33" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="111" t="s">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="111"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="39"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="38"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="24" t="s">
+      <c r="E34" s="34"/>
+      <c r="F34" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="H34" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="I34" s="34" t="s">
+      <c r="I34" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="J34" s="35"/>
-      <c r="K34" s="24" t="s">
+      <c r="J34" s="34"/>
+      <c r="K34" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="L34" s="31" t="s">
+      <c r="L34" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="35"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="34"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="37"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="36"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="37"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="36"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="37"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="36"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="37"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="36"/>
     </row>
     <row r="39" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="111" t="s">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="M39" s="111"/>
-      <c r="N39" s="111"/>
-      <c r="O39" s="111"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="39"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="38"/>
     </row>
     <row r="40" spans="1:18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="127" t="s">
+      <c r="A41" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="127"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="127"/>
-      <c r="J41" s="127"/>
-      <c r="K41" s="127"/>
-      <c r="M41" s="44" t="s">
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="M41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
     </row>
     <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="128" t="s">
+      <c r="A42" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="128"/>
-      <c r="C42" s="128"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="128"/>
-      <c r="M42" s="33"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="M42" s="32"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="128"/>
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="128"/>
-      <c r="K43" s="128"/>
-      <c r="M43" s="33"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="M43" s="32"/>
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="129" t="s">
+      <c r="A44" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="129"/>
-      <c r="C44" s="129"/>
-      <c r="D44" s="129"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="129"/>
-      <c r="G44" s="129"/>
-      <c r="H44" s="129"/>
-      <c r="I44" s="129"/>
-      <c r="J44" s="129"/>
-      <c r="K44" s="129"/>
-      <c r="M44" s="125" t="s">
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="M44" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N44" s="125"/>
-      <c r="O44" s="125"/>
-      <c r="P44" s="125"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="129"/>
-      <c r="B45" s="129"/>
-      <c r="C45" s="129"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="129"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="129"/>
-      <c r="K45" s="129"/>
-      <c r="M45" s="126" t="s">
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="M45" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="N45" s="126"/>
-      <c r="O45" s="126"/>
-      <c r="P45" s="126"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="50"/>
     </row>
     <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="124" t="s">
+      <c r="A46" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="124"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
-      <c r="M46" s="33"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="M46" s="32"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="124"/>
-      <c r="B47" s="124"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="124"/>
-      <c r="E47" s="124"/>
-      <c r="F47" s="124"/>
-      <c r="G47" s="124"/>
-      <c r="H47" s="124"/>
-      <c r="I47" s="124"/>
-      <c r="J47" s="124"/>
-      <c r="K47" s="124"/>
-      <c r="M47" s="33"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="M47" s="32"/>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="124" t="s">
+      <c r="A48" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="124"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="124"/>
-      <c r="H48" s="124"/>
-      <c r="I48" s="124"/>
-      <c r="J48" s="124"/>
-      <c r="K48" s="124"/>
-      <c r="M48" s="33"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="M48" s="32"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="124"/>
-      <c r="B49" s="124"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="124"/>
-      <c r="M49" s="33"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="M49" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="K8:R8"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
@@ -2974,42 +3010,6 @@
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="M15:P15"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="F8:I8"/>
     <mergeCell ref="L27:O27"/>
     <mergeCell ref="L33:O33"/>
     <mergeCell ref="L39:O39"/>
